--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>模块</t>
   </si>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1.列表√
 2.添加√
@@ -393,6 +389,22 @@
 2.添加
 3.编辑
 4.删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*采用最新树型数据库设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*关联部门</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +570,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -569,9 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -675,6 +681,18 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,44 +991,45 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="33" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="29.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.875" style="50" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1022,14 +1041,14 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="47">
+      <c r="C2" s="26"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="45">
         <v>42772</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1041,22 +1060,22 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <v>42999</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="45">
         <v>42782</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1066,20 +1085,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>42999</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="45">
         <v>42999</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1091,14 +1110,14 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1107,23 +1126,23 @@
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="47">
+      <c r="E6" s="22"/>
+      <c r="F6" s="45">
         <v>42999</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1135,41 +1154,43 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="47">
+      <c r="E7" s="22"/>
+      <c r="F7" s="45">
         <v>43035</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="21"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="158.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="47">
+      <c r="E8" s="22"/>
+      <c r="F8" s="45">
         <v>43087</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="4"/>
@@ -1177,46 +1198,46 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="47">
+      <c r="E9" s="22"/>
+      <c r="F9" s="45">
         <v>43087</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="48">
+      <c r="E10" s="40"/>
+      <c r="F10" s="46">
         <v>43087</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H10"/>
@@ -1225,112 +1246,114 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="65.25" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <v>43087</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1340,794 +1363,794 @@
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="13"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="13"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="49"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="13"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="13"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="13"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="13"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="13"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="13"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="13"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="13"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="13"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="13"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="13"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="13"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="49"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="13"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="49"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="13"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="49"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="13"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="49"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="13"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="13"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="13"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="13"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="13"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="13"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="13"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="13"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="15"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="13"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="15"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="49"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="13"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="13"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="13"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="15"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="13"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="13"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="13"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="49"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="13"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="13"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="15"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="49"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="13"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="15"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="49"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="13"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="15"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="49"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="13"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="15"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="49"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="13"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="15"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="49"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="13"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="15"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="49"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -2142,42 +2165,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="45" t="s">
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="45" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="45" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="43" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="45" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="账号认证系统" sheetId="2" r:id="rId2"/>
     <sheet name="使用规范" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>模块</t>
   </si>
@@ -338,10 +338,6 @@
     <t>*按需求</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2.工具栏变成一个部份页</t>
-  </si>
-  <si>
     <t>认证账号</t>
   </si>
   <si>
@@ -388,18 +384,50 @@
       <t>,避免意外保存</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.列表
+2.添加
+3.编辑
+4.删除
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.工具栏变成一个部份页</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.角色与管理员分部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,166 +489,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,194 +508,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -843,251 +532,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,57 +724,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1616,12 +1016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,7 +1037,7 @@
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1067,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" ht="150.75" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="150.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1087,7 @@
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
     </row>
-    <row r="3" ht="75.75" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="75.75" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1115,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1139,7 @@
       <c r="K4" s="56"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1161,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" ht="156" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="156" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -1792,7 +1191,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="54" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
@@ -1816,7 +1215,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" ht="158.25" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="158.25" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
@@ -1844,7 +1243,7 @@
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1267,7 @@
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>32</v>
       </c>
@@ -1894,12 +1293,12 @@
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" ht="65.25" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="70.5" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
+      <c r="B11" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>16</v>
@@ -1920,7 +1319,7 @@
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="66" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +1343,7 @@
       <c r="K12" s="58"/>
       <c r="L12" s="58"/>
     </row>
-    <row r="13" s="7" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>40</v>
       </c>
@@ -1968,7 +1367,7 @@
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
     </row>
-    <row r="14" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="47"/>
@@ -1982,7 +1381,7 @@
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
     </row>
-    <row r="15" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="47"/>
@@ -1996,7 +1395,7 @@
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="47"/>
@@ -2010,7 +1409,7 @@
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
     </row>
-    <row r="17" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="47"/>
@@ -2024,7 +1423,7 @@
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
     </row>
-    <row r="18" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="47"/>
@@ -2038,12 +1437,12 @@
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
     </row>
-    <row r="19" s="7" customFormat="1" ht="45" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="45" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
+      <c r="B19" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="48"/>
@@ -2056,7 +1455,7 @@
       <c r="K19" s="59"/>
       <c r="L19" s="59"/>
     </row>
-    <row r="20" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="47"/>
@@ -2070,7 +1469,7 @@
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
     </row>
-    <row r="21" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="47"/>
@@ -2084,7 +1483,7 @@
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
     </row>
-    <row r="22" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="47"/>
@@ -2098,7 +1497,7 @@
       <c r="K22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="47"/>
@@ -2112,7 +1511,7 @@
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
     </row>
-    <row r="24" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="47"/>
@@ -2126,7 +1525,7 @@
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
     </row>
-    <row r="25" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="47"/>
@@ -2140,7 +1539,7 @@
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
     </row>
-    <row r="26" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="47"/>
@@ -2154,7 +1553,7 @@
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
-    <row r="27" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="47"/>
@@ -2168,7 +1567,7 @@
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
     </row>
-    <row r="28" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="47"/>
@@ -2182,7 +1581,7 @@
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
     </row>
-    <row r="29" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="47"/>
@@ -2196,7 +1595,7 @@
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
     </row>
-    <row r="30" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="47"/>
@@ -2210,7 +1609,7 @@
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
     </row>
-    <row r="31" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="47"/>
@@ -2224,7 +1623,7 @@
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
     </row>
-    <row r="32" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="47"/>
@@ -2238,7 +1637,7 @@
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
     </row>
-    <row r="33" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="47"/>
@@ -2252,7 +1651,7 @@
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
     </row>
-    <row r="34" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="47"/>
@@ -2266,7 +1665,7 @@
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
     </row>
-    <row r="35" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="47"/>
@@ -2280,7 +1679,7 @@
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
     </row>
-    <row r="36" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="47"/>
@@ -2294,7 +1693,7 @@
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
     </row>
-    <row r="37" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="47"/>
@@ -2308,7 +1707,7 @@
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
     </row>
-    <row r="38" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="47"/>
@@ -2322,7 +1721,7 @@
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
     </row>
-    <row r="39" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="47"/>
@@ -2897,70 +2296,68 @@
       <c r="L79" s="56"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -2968,20 +2365,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3191,8 +2588,8 @@
       <c r="D36" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
-    <sheet name="账号认证系统" sheetId="2" r:id="rId2"/>
-    <sheet name="使用规范" sheetId="3" r:id="rId3"/>
-    <sheet name="BUG" sheetId="4" r:id="rId4"/>
+    <sheet name="BUG" sheetId="4" r:id="rId2"/>
+    <sheet name="账号认证系统" sheetId="2" r:id="rId3"/>
+    <sheet name="使用规范" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>模块</t>
   </si>
@@ -456,13 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,158 +499,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,188 +518,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -873,251 +542,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,57 +740,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1652,12 +1032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1674,7 +1053,7 @@
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1083,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" ht="150.75" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="150.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1103,7 @@
       <c r="K2" s="58"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" ht="75.75" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="75.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1131,7 @@
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1155,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1177,7 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
     </row>
-    <row r="6" ht="156" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="156" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1207,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="54" customHeight="1">
       <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1231,7 @@
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
     </row>
-    <row r="8" ht="158.25" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="158.25" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1259,7 @@
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>30</v>
       </c>
@@ -1904,7 +1283,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
@@ -1930,7 +1309,7 @@
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
     </row>
-    <row r="11" ht="70.5" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="70.5" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1335,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="58"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="66" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>39</v>
       </c>
@@ -1980,7 +1359,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
     </row>
-    <row r="13" s="10" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>41</v>
       </c>
@@ -2004,7 +1383,7 @@
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="49"/>
@@ -2018,7 +1397,7 @@
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="49"/>
@@ -2032,7 +1411,7 @@
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="49"/>
@@ -2046,7 +1425,7 @@
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="49"/>
@@ -2060,7 +1439,7 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="49"/>
@@ -2074,7 +1453,7 @@
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="45" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A19" s="51" t="s">
         <v>34</v>
       </c>
@@ -2092,7 +1471,7 @@
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="49"/>
@@ -2106,7 +1485,7 @@
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="49"/>
@@ -2120,7 +1499,7 @@
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="49"/>
@@ -2134,7 +1513,7 @@
       <c r="K22" s="61"/>
       <c r="L22" s="61"/>
     </row>
-    <row r="23" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="49"/>
@@ -2148,7 +1527,7 @@
       <c r="K23" s="61"/>
       <c r="L23" s="61"/>
     </row>
-    <row r="24" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="49"/>
@@ -2162,7 +1541,7 @@
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
     </row>
-    <row r="25" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="49"/>
@@ -2176,7 +1555,7 @@
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="49"/>
@@ -2190,7 +1569,7 @@
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="49"/>
@@ -2204,7 +1583,7 @@
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="49"/>
@@ -2218,7 +1597,7 @@
       <c r="K28" s="61"/>
       <c r="L28" s="61"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="49"/>
@@ -2232,7 +1611,7 @@
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="49"/>
@@ -2246,7 +1625,7 @@
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="49"/>
@@ -2260,7 +1639,7 @@
       <c r="K31" s="61"/>
       <c r="L31" s="61"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="49"/>
@@ -2274,7 +1653,7 @@
       <c r="K32" s="61"/>
       <c r="L32" s="61"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="49"/>
@@ -2288,7 +1667,7 @@
       <c r="K33" s="61"/>
       <c r="L33" s="61"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="49"/>
@@ -2302,7 +1681,7 @@
       <c r="K34" s="61"/>
       <c r="L34" s="61"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="49"/>
@@ -2316,7 +1695,7 @@
       <c r="K35" s="61"/>
       <c r="L35" s="61"/>
     </row>
-    <row r="36" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="49"/>
@@ -2330,7 +1709,7 @@
       <c r="K36" s="61"/>
       <c r="L36" s="61"/>
     </row>
-    <row r="37" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="49"/>
@@ -2344,7 +1723,7 @@
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
     </row>
-    <row r="38" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="49"/>
@@ -2358,7 +1737,7 @@
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
     </row>
-    <row r="39" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="49"/>
@@ -2933,70 +2312,232 @@
       <c r="L79" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -3023,7 +2564,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" ht="52" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="51.95" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -3200,173 +2741,8 @@
       <c r="C36" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="67.625" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="错误或警告介面，请点击： 返回上一步操作，删除掉" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
-    <sheet name="BUG" sheetId="4" r:id="rId2"/>
-    <sheet name="账号认证系统" sheetId="2" r:id="rId3"/>
-    <sheet name="使用规范" sheetId="3" r:id="rId4"/>
+    <sheet name="使用规范" sheetId="3" r:id="rId2"/>
+    <sheet name="BUG" sheetId="4" r:id="rId3"/>
+    <sheet name="数据库设计" sheetId="2" r:id="rId4"/>
+    <sheet name="项目说明" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>模块</t>
   </si>
@@ -451,12 +452,45 @@
   <si>
     <t>错误或警告介面，请点击： 返回上一步操作，删除掉</t>
   </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据仓库：用于编写如何保存数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域业务：用于编写业务相关逻辑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +538,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -548,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +780,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2320,6 +2368,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="62.625" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="51.95" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -2529,220 +2795,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="62.625" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="51.95" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
-    <sheet name="使用规范" sheetId="3" r:id="rId2"/>
-    <sheet name="BUG" sheetId="4" r:id="rId3"/>
-    <sheet name="数据库设计" sheetId="2" r:id="rId4"/>
+    <sheet name="使用规范" sheetId="2" r:id="rId2"/>
+    <sheet name="BUG" sheetId="3" r:id="rId3"/>
+    <sheet name="数据库设计" sheetId="4" r:id="rId4"/>
     <sheet name="项目说明" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>模块</t>
   </si>
@@ -69,6 +69,9 @@
 2.添加√
 3.编辑√
 4.删除√</t>
+  </si>
+  <si>
+    <t>已开发</t>
   </si>
   <si>
     <t>开发</t>
@@ -185,7 +188,7 @@
     </r>
   </si>
   <si>
-    <t>推迟</t>
+    <t>考滤</t>
   </si>
   <si>
     <r>
@@ -312,37 +315,10 @@
     <t>1.菜单图标改用fontawesome或集合一张图片</t>
   </si>
   <si>
-    <t>考滤</t>
-  </si>
-  <si>
     <t>EasyUI不兼容，试过了不要再想</t>
   </si>
   <si>
     <t>管理员管理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1.列表
-2.添加
-3.编辑
-4.删除
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.工具栏变成一个部份页</t>
-    </r>
   </si>
   <si>
     <t>*关联部门</t>
@@ -362,6 +338,17 @@
   </si>
   <si>
     <t>*按需求</t>
+  </si>
+  <si>
+    <t>推迟</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>1.工具栏变成一个部份页
+2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
+3.让Infrastructure成为一个纯粹的基础设施类</t>
   </si>
   <si>
     <r>
@@ -386,25 +373,7 @@
     </r>
   </si>
   <si>
-    <t>认证账号</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Addtime</t>
-  </si>
-  <si>
-    <t>项目</t>
+    <t>分类</t>
   </si>
   <si>
     <t>规范</t>
@@ -444,6 +413,9 @@
     <t>null值不会对数据库性能造成很大影响</t>
   </si>
   <si>
+    <t>项目</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
@@ -453,44 +425,56 @@
     <t>错误或警告介面，请点击： 返回上一步操作，删除掉</t>
   </si>
   <si>
-    <t>分类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>认证账号</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Addtime</t>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Domain</t>
   </si>
   <si>
+    <t>领域业务：用于编写业务相关逻辑</t>
+  </si>
+  <si>
     <t>Repository</t>
   </si>
   <si>
+    <t>数据仓库：用于编写如何保存数据</t>
+  </si>
+  <si>
     <t>Infrastructure</t>
   </si>
   <si>
     <t>基础设施</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据仓库：用于编写如何保存数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领域业务：用于编写业务相关逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,21 +517,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,8 +681,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -584,39 +885,281 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -712,7 +1255,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,12 +1288,12 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -781,17 +1327,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1080,11 +1667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1101,7 +1689,7 @@
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1126,12 +1714,12 @@
       <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" ht="150.75" customHeight="1">
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" ht="150.75" customHeight="1" spans="1:12">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -1146,24 +1734,26 @@
         <v>42772</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:12" ht="75.75" customHeight="1">
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" ht="75.75" customHeight="1" spans="1:12">
       <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="25">
         <v>42999</v>
@@ -1172,23 +1762,23 @@
         <v>42782</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:12">
       <c r="A4" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="25">
@@ -1198,48 +1788,48 @@
         <v>42999</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:12">
       <c r="A5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="1:12" ht="156" customHeight="1">
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" ht="156" customHeight="1" spans="1:12">
       <c r="A6" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="25">
         <v>43090</v>
@@ -1248,23 +1838,25 @@
         <v>42999</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" ht="54" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" ht="54" customHeight="1" spans="1:12">
       <c r="A7" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -1272,25 +1864,25 @@
         <v>43035</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" ht="158.25" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" ht="158.25" customHeight="1" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1298,27 +1890,27 @@
         <v>43087</v>
       </c>
       <c r="H8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1326,23 +1918,23 @@
         <v>43087</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:12">
       <c r="A10" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -1353,1028 +1945,1041 @@
         <v>35</v>
       </c>
       <c r="I10"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-    </row>
-    <row r="11" spans="1:12" ht="70.5" customHeight="1">
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" ht="58" customHeight="1" spans="1:12">
       <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>37</v>
+      <c r="B11" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="40">
+        <v>43095</v>
+      </c>
       <c r="G11" s="25">
         <v>43087</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46">
+        <v>43090</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+      <c r="A13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45">
+      <c r="B13" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46">
         <v>43090</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45">
-        <v>43090</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="62" customHeight="1" spans="1:12">
+      <c r="A14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="46">
+        <v>43095</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="47"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="47"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A19" s="51" t="s">
-        <v>34</v>
+      <c r="H18" s="49"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="45" customHeight="1" spans="1:12">
+      <c r="A19" s="52" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="51"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="52"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="47"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
-      <c r="F22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
-      <c r="F24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+    </row>
+    <row r="25" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="47"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
-      <c r="F30" s="47"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-    </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="50"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+    </row>
+    <row r="32" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="47"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="50"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+    </row>
+    <row r="33" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="47"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="34" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
-      <c r="F34" s="47"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+    </row>
+    <row r="35" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+    </row>
+    <row r="36" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
-      <c r="F36" s="47"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+    </row>
+    <row r="37" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="47"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="50"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+    </row>
+    <row r="38" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
-      <c r="F38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+    </row>
+    <row r="39" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="47"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="50"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="52"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="52"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="52"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="58"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="52"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="52"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="52"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -2382,217 +2987,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="51.95" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="51.95" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="67.625" customWidth="1"/>
@@ -2600,22 +3206,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2740,202 +3346,204 @@
       <c r="C26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
+    <hyperlink ref="B2" r:id="rId1" display="错误或警告介面，请点击： 返回上一步操作，删除掉" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="63" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>66</v>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>模块</t>
   </si>
@@ -343,12 +343,22 @@
     <t>推迟</t>
   </si>
   <si>
-    <t>优化</t>
-  </si>
-  <si>
-    <t>1.工具栏变成一个部份页
-2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
-3.让Infrastructure成为一个纯粹的基础设施类</t>
+    <t>日志系统</t>
+  </si>
+  <si>
+    <t>1.Bug日志:写入一调试业务的日志或者bug记录
+2.访问日志:所有访问的日志,通常指HTTP访问
+*要定期清理因为很大
+*把不同子系统的访问日志分开,以减小体量
+3.业务日志:记录用户业务操作的日志
+*与用户是绑定关系</t>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t>*基本思想
+按照不同的需求建立各种log,不要想着一个表可以搞定</t>
   </si>
   <si>
     <r>
@@ -373,6 +383,14 @@
     </r>
   </si>
   <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>1.工具栏变成一个部份页
+2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
+3.让Infrastructure成为一个纯粹的基础设施类</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
@@ -469,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -517,26 +535,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,14 +554,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,15 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +597,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,21 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -648,14 +620,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,6 +650,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,13 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,25 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,13 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +779,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,13 +815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,31 +851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,12 +876,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +904,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,16 +938,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,26 +987,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,148 +1006,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2027,23 +2045,25 @@
       <c r="K13" s="62"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="62" customHeight="1" spans="1:12">
+    <row r="14" s="10" customFormat="1" ht="90" customHeight="1" spans="1:12">
       <c r="A14" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="44"/>
       <c r="E14" s="50"/>
       <c r="F14" s="48"/>
       <c r="G14" s="46">
-        <v>43095</v>
-      </c>
-      <c r="H14" s="49"/>
+        <v>43097</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2110,7 +2130,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="50"/>
@@ -2123,14 +2143,22 @@
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50"/>
+    <row r="20" s="10" customFormat="1" ht="63" customHeight="1" spans="1:12">
+      <c r="A20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="50"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="46">
+        <v>43095</v>
+      </c>
       <c r="H20" s="49"/>
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
@@ -2988,10 +3016,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -2999,22 +3027,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="51.95" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3207,10 +3235,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>7</v>
@@ -3218,10 +3246,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3367,32 +3395,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3419,34 +3447,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="数据库设计" sheetId="4" r:id="rId4"/>
     <sheet name="项目说明" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>模块</t>
   </si>
@@ -346,19 +346,7 @@
     <t>日志系统</t>
   </si>
   <si>
-    <t>1.Bug日志:写入一调试业务的日志或者bug记录
-2.访问日志:所有访问的日志,通常指HTTP访问
-*要定期清理因为很大
-*把不同子系统的访问日志分开,以减小体量
-3.业务日志:记录用户业务操作的日志
-*与用户是绑定关系</t>
-  </si>
-  <si>
     <t>思考</t>
-  </si>
-  <si>
-    <t>*基本思想
-按照不同的需求建立各种log,不要想着一个表可以搞定</t>
   </si>
   <si>
     <r>
@@ -481,18 +469,27 @@
   <si>
     <t>基础设施</t>
   </si>
+  <si>
+    <t xml:space="preserve">*基本思想
+按照不同的需求建立各种log,不要想着一个表可以搞定
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试日志:写入一调试业务的日志或者bug记录
+2.访问日志:所有访问的日志,通常指HTTP访问
+*要定期清理因为很大
+*把不同子系统的访问日志分开,以减小体量
+3.业务日志:记录用户业务操作的日志
+*与用户是绑定关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,158 +532,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,188 +551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -903,251 +575,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,57 +776,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1685,12 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,12 +1084,12 @@
     <col min="5" max="5" width="5" style="14" customWidth="1"/>
     <col min="6" max="6" width="12" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="14" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="51.75" style="15" customWidth="1"/>
     <col min="9" max="9" width="29.875" style="16" customWidth="1"/>
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1119,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" ht="150.75" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="150.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +1139,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
     </row>
-    <row r="3" ht="75.75" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="75.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1169,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1193,7 @@
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +1215,7 @@
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
     </row>
-    <row r="6" ht="156" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="156" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1245,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="54" customHeight="1">
       <c r="A7" s="27" t="s">
         <v>23</v>
       </c>
@@ -1889,7 +1271,7 @@
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
     </row>
-    <row r="8" ht="158.25" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="158.25" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1299,7 @@
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1323,7 @@
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="32" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +1349,7 @@
       <c r="K10" s="59"/>
       <c r="L10" s="59"/>
     </row>
-    <row r="11" ht="58" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="57.95" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +1379,7 @@
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="66" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +1403,7 @@
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
     </row>
-    <row r="13" s="10" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>40</v>
       </c>
@@ -2045,15 +1427,15 @@
       <c r="K13" s="62"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="90" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="113.25" customHeight="1">
       <c r="A14" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="50"/>
@@ -2062,14 +1444,14 @@
         <v>43097</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="51"/>
@@ -2083,7 +1465,7 @@
       <c r="K15" s="62"/>
       <c r="L15" s="62"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="51"/>
@@ -2097,7 +1479,7 @@
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="51"/>
@@ -2111,7 +1493,7 @@
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="51"/>
@@ -2125,12 +1507,12 @@
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="45" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="50"/>
@@ -2143,12 +1525,12 @@
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="63" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="63" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="44" t="s">
@@ -2165,7 +1547,7 @@
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="51"/>
@@ -2179,7 +1561,7 @@
       <c r="K21" s="62"/>
       <c r="L21" s="62"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="51"/>
@@ -2193,7 +1575,7 @@
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
     </row>
-    <row r="23" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="51"/>
@@ -2207,7 +1589,7 @@
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
     </row>
-    <row r="24" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="51"/>
@@ -2221,7 +1603,7 @@
       <c r="K24" s="62"/>
       <c r="L24" s="62"/>
     </row>
-    <row r="25" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="51"/>
@@ -2235,7 +1617,7 @@
       <c r="K25" s="62"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="51"/>
@@ -2249,7 +1631,7 @@
       <c r="K26" s="62"/>
       <c r="L26" s="62"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="51"/>
@@ -2263,7 +1645,7 @@
       <c r="K27" s="62"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="51"/>
@@ -2277,7 +1659,7 @@
       <c r="K28" s="62"/>
       <c r="L28" s="62"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="51"/>
@@ -2291,7 +1673,7 @@
       <c r="K29" s="62"/>
       <c r="L29" s="62"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="51"/>
@@ -2305,7 +1687,7 @@
       <c r="K30" s="62"/>
       <c r="L30" s="62"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="51"/>
@@ -2319,7 +1701,7 @@
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="51"/>
@@ -2333,7 +1715,7 @@
       <c r="K32" s="62"/>
       <c r="L32" s="62"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="51"/>
@@ -2347,7 +1729,7 @@
       <c r="K33" s="62"/>
       <c r="L33" s="62"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="51"/>
@@ -2361,7 +1743,7 @@
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="51"/>
@@ -2375,7 +1757,7 @@
       <c r="K35" s="62"/>
       <c r="L35" s="62"/>
     </row>
-    <row r="36" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="51"/>
@@ -2389,7 +1771,7 @@
       <c r="K36" s="62"/>
       <c r="L36" s="62"/>
     </row>
-    <row r="37" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="51"/>
@@ -2403,7 +1785,7 @@
       <c r="K37" s="62"/>
       <c r="L37" s="62"/>
     </row>
-    <row r="38" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="51"/>
@@ -2417,7 +1799,7 @@
       <c r="K38" s="62"/>
       <c r="L38" s="62"/>
     </row>
-    <row r="39" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="51"/>
@@ -2992,22 +2374,21 @@
       <c r="L79" s="59"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -3016,10 +2397,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3027,22 +2408,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="51.95" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" ht="51.95" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3211,22 +2592,21 @@
       <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="67.625" customWidth="1"/>
@@ -3235,10 +2615,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>7</v>
@@ -3246,10 +2626,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3374,72 +2754,70 @@
       <c r="C26" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="错误或警告介面，请点击： 返回上一步操作，删除掉" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="49.25" customWidth="1"/>
@@ -3447,34 +2825,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3570,8 +2948,8 @@
       <c r="B27" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>模块</t>
   </si>
@@ -309,18 +309,6 @@
     <t>把对管理员账号API封装成一个DLL</t>
   </si>
   <si>
-    <t>管理后台</t>
-  </si>
-  <si>
-    <t>1.菜单图标改用fontawesome或集合一张图片</t>
-  </si>
-  <si>
-    <t>EasyUI不兼容，试过了不要再想</t>
-  </si>
-  <si>
-    <t>管理员管理</t>
-  </si>
-  <si>
     <t>*关联部门</t>
   </si>
   <si>
@@ -374,11 +362,6 @@
     <t>优化</t>
   </si>
   <si>
-    <t>1.工具栏变成一个部份页
-2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
-3.让Infrastructure成为一个纯粹的基础设施类</t>
-  </si>
-  <si>
     <t>分类</t>
   </si>
   <si>
@@ -473,7 +456,7 @@
     <t xml:space="preserve">*基本思想
 按照不同的需求建立各种log,不要想着一个表可以搞定
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.调试日志:写入一调试业务的日志或者bug记录
@@ -482,14 +465,41 @@
 *把不同子系统的访问日志分开,以减小体量
 3.业务日志:记录用户业务操作的日志
 *与用户是绑定关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否决</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.菜单图标改用fontawesome或集合一张图片：EasyUI不兼容，试过了不要再想</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理后台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录
+2.登退</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工具栏变成一个部份页
+2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
+3.让Infrastructure成为一个纯粹的基础设施类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,14 +512,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -581,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,52 +684,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,34 +729,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,10 +1098,10 @@
       <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="150.75" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -1134,10 +1118,10 @@
         <v>42772</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="75.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -1164,10 +1148,10 @@
       <c r="H3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
@@ -1188,10 +1172,10 @@
         <v>42999</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
@@ -1210,10 +1194,10 @@
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="156" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -1240,10 +1224,10 @@
       <c r="H6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="54" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -1266,1115 +1250,1089 @@
       <c r="H7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="1:12" ht="158.25" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>27</v>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" ht="57.95" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="34">
+        <v>43095</v>
+      </c>
       <c r="G8" s="25">
         <v>43087</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
+        <v>43090</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40">
+        <v>43090</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40">
+        <v>43090</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40">
+        <v>43095</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40">
+        <v>43097</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="A18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25">
+        <v>43087</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
         <v>43087</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36">
-        <v>43087</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-    </row>
-    <row r="11" spans="1:12" ht="57.95" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="40">
-        <v>43095</v>
-      </c>
-      <c r="G11" s="25">
-        <v>43087</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46">
-        <v>43090</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46">
-        <v>43090</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46">
-        <v>43097</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="63" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46">
-        <v>43095</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="51"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="48"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="50"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="53"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="53"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="53"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="53"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="53"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="53"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="53"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -2397,10 +2355,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -2408,22 +2366,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="51.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2592,7 +2550,7 @@
       <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -2615,10 +2573,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>7</v>
@@ -2626,10 +2584,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2754,7 +2712,7 @@
       <c r="C26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
   </hyperlinks>
@@ -2774,36 +2732,36 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -2825,34 +2783,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2948,7 +2906,7 @@
       <c r="B27" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
+    <workbookView windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
-    <sheet name="使用规范" sheetId="2" r:id="rId2"/>
-    <sheet name="BUG" sheetId="3" r:id="rId3"/>
-    <sheet name="数据库设计" sheetId="4" r:id="rId4"/>
-    <sheet name="项目说明" sheetId="5" r:id="rId5"/>
+    <sheet name="BUG" sheetId="2" r:id="rId2"/>
+    <sheet name="项目说明" sheetId="3" r:id="rId3"/>
+    <sheet name="使用规范" sheetId="4" r:id="rId4"/>
+    <sheet name="数据库设计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>模块</t>
   </si>
@@ -87,18 +87,6 @@
 5.菜单图标不显示√</t>
   </si>
   <si>
-    <t>错误信息功能</t>
-  </si>
-  <si>
-    <t>可开发</t>
-  </si>
-  <si>
-    <t>主介面加载菜单</t>
-  </si>
-  <si>
-    <t>1.加载菜单</t>
-  </si>
-  <si>
     <t>基础设置-
 角色管理</t>
   </si>
@@ -131,7 +119,106 @@
 4.删除</t>
   </si>
   <si>
+    <t>可开发</t>
+  </si>
+  <si>
     <t>*采用最新树型数据库设计</t>
+  </si>
+  <si>
+    <t>管理员管理</t>
+  </si>
+  <si>
+    <t>*关联部门</t>
+  </si>
+  <si>
+    <t>开发者功能-配置信息维护</t>
+  </si>
+  <si>
+    <t>1.列表
+2.添加
+3.编辑
+4.删除
+5.重新生成</t>
+  </si>
+  <si>
+    <t>系统设置-配置信息</t>
+  </si>
+  <si>
+    <t>*按需求</t>
+  </si>
+  <si>
+    <t>推迟</t>
+  </si>
+  <si>
+    <t>管理后台-登录相关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.登录
+2.登退
+3.A密码要保存成加密状态 B密码要加入密码规规
+4.修改密码
+5.忘记密码
+6.认证授权与菜单显示
+</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.工具栏变成一个部份页
+2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
+3.让Infrastructure成为一个纯粹的基础设施类,EF的实体内容将移到Repository√
+</t>
+  </si>
+  <si>
+    <t>日志系统</t>
+  </si>
+  <si>
+    <t>1.调试日志:写入一调试业务的日志或者bug记录
+2.访问日志:所有访问的日志,通常指HTTP访问
+*要定期清理因为很大
+*把不同子系统的访问日志分开,以减小体量
+3.业务日志:记录用户业务操作的日志
+*与用户是绑定关系</t>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*基本思想
+按照不同的需求建立各种log,不要想着一个表可以搞定
+</t>
+  </si>
+  <si>
+    <t>考滤</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1.角色与管理员分部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+  </si>
+  <si>
+    <t>否决</t>
+  </si>
+  <si>
+    <t>1.菜单图标改用fontawesome或集合一张图片：EasyUI不兼容，试过了不要再想</t>
   </si>
   <si>
     <t>API-
@@ -186,9 +273,6 @@
 2.连接管理介面(CRUD)
 3.账号管理介面</t>
     </r>
-  </si>
-  <si>
-    <t>考滤</t>
   </si>
   <si>
     <r>
@@ -309,57 +393,37 @@
     <t>把对管理员账号API封装成一个DLL</t>
   </si>
   <si>
-    <t>*关联部门</t>
-  </si>
-  <si>
-    <t>开发者功能-配置信息维护</t>
-  </si>
-  <si>
-    <t>1.列表
-2.添加
-3.编辑
-4.删除
-5.重新生成</t>
-  </si>
-  <si>
-    <t>系统设置-配置信息</t>
-  </si>
-  <si>
-    <t>*按需求</t>
-  </si>
-  <si>
-    <t>推迟</t>
-  </si>
-  <si>
-    <t>日志系统</t>
-  </si>
-  <si>
-    <t>思考</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1.角色与管理员分部门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-  </si>
-  <si>
-    <t>优化</t>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>介面</t>
+  </si>
+  <si>
+    <t>错误或警告介面，请点击： 返回上一步操作，删除掉</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>领域业务：用于编写业务相关逻辑</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>数据仓库：用于编写如何保存数据</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>基础设施</t>
   </si>
   <si>
     <t>分类</t>
@@ -402,18 +466,6 @@
     <t>null值不会对数据库性能造成很大影响</t>
   </si>
   <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>介面</t>
-  </si>
-  <si>
-    <t>错误或警告介面，请点击： 返回上一步操作，删除掉</t>
-  </si>
-  <si>
     <t>认证账号</t>
   </si>
   <si>
@@ -430,76 +482,19 @@
   </si>
   <si>
     <t>Addtime</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>领域业务：用于编写业务相关逻辑</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>数据仓库：用于编写如何保存数据</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>基础设施</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*基本思想
-按照不同的需求建立各种log,不要想着一个表可以搞定
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.调试日志:写入一调试业务的日志或者bug记录
-2.访问日志:所有访问的日志,通常指HTTP访问
-*要定期清理因为很大
-*把不同子系统的访问日志分开,以减小体量
-3.业务日志:记录用户业务操作的日志
-*与用户是绑定关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>否决</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.菜单图标改用fontawesome或集合一张图片：EasyUI不兼容，试过了不要再想</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理后台</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录
-2.登退</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.工具栏变成一个部份页
-2.当数据库超时的时候，log将无法记录，出现这种情况应该写到文件中
-3.让Infrastructure成为一个纯粹的基础设施类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,13 +529,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +693,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -577,9 +897,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -587,29 +1149,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -678,57 +1240,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -750,20 +1312,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1052,11 +1661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1073,7 +1683,7 @@
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1713,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:12" ht="150.75" customHeight="1">
+    <row r="2" ht="150.75" customHeight="1" spans="1:12">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1733,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="75.75" customHeight="1">
+    <row r="3" ht="75.75" customHeight="1" spans="1:12">
       <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
@@ -1153,58 +1763,68 @@
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" ht="156" customHeight="1" spans="1:12">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="25">
-        <v>42999</v>
+        <v>43090</v>
       </c>
       <c r="G4" s="25">
         <v>42999</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="5" ht="54" customHeight="1" spans="1:12">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="25">
+        <v>43035</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="52"/>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
     </row>
-    <row r="6" spans="1:12" ht="156" customHeight="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" ht="57.95" customHeight="1" spans="1:12">
+      <c r="A6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>12</v>
@@ -1215,92 +1835,84 @@
       <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="25">
-        <v>43090</v>
+      <c r="F6" s="32">
+        <v>43095</v>
       </c>
       <c r="G6" s="25">
-        <v>42999</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="52"/>
+        <v>43087</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="53"/>
       <c r="J6" s="53"/>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="1:12" ht="54" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>24</v>
+    <row r="7" s="9" customFormat="1" ht="66" customHeight="1" spans="1:12">
+      <c r="A7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25">
-        <v>43035</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" ht="57.95" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>24</v>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38">
+        <v>43090</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+      <c r="A8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="34">
-        <v>43095</v>
-      </c>
-      <c r="G8" s="25">
-        <v>43087</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>35</v>
+      <c r="E8" s="36"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="38">
+        <v>43090</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="89" customHeight="1" spans="1:12">
+      <c r="A9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40">
+      <c r="E9" s="42"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="38">
         <v>43090</v>
       </c>
       <c r="H9" s="41"/>
@@ -1309,467 +1921,447 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A10" s="36" t="s">
+    <row r="10" s="10" customFormat="1" ht="77" customHeight="1" spans="1:12">
+      <c r="A10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="38">
+        <v>43095</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="24" customHeight="1" spans="1:12">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="97.5" customHeight="1" spans="1:12">
+      <c r="A15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="38">
+        <v>43097</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" s="10" customFormat="1" ht="45" customHeight="1" spans="1:12">
+      <c r="A16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="B16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" s="10" customFormat="1" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+    </row>
+    <row r="18" s="10" customFormat="1" ht="122.25" customHeight="1" spans="1:12">
+      <c r="A18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="40">
-        <v>43090</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
+        <v>43087</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A19" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40">
-        <v>43090</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40">
-        <v>43095</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="97.5" customHeight="1">
-      <c r="A17" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40">
-        <v>43097</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A18" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25">
         <v>43087</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25">
-        <v>43087</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-    </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-    </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+    </row>
+    <row r="32" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+    </row>
+    <row r="33" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+    </row>
+    <row r="34" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+    </row>
+    <row r="35" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="47"/>
@@ -2303,50 +2895,334 @@
       <c r="K75" s="53"/>
       <c r="L75" s="53"/>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="47"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="错误或警告介面，请点击： 返回上一步操作，删除掉" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -2354,560 +3230,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="51.95" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" ht="51.95" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="67.625" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="49.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/自定义任务.xlsx
+++ b/文档/自定义任务.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="任务安排" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="使用规范" sheetId="4" r:id="rId4"/>
     <sheet name="数据库设计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>模块</t>
   </si>
@@ -151,15 +151,6 @@
   </si>
   <si>
     <t>管理后台-登录相关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.登录
-2.登退
-3.A密码要保存成加密状态 B密码要加入密码规规
-4.修改密码
-5.忘记密码
-6.认证授权与菜单显示
-</t>
   </si>
   <si>
     <t>优化</t>
@@ -483,18 +474,23 @@
   <si>
     <t>Addtime</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.登录
+2.登退
+3.A密码要保存成加密状态 B密码要加入密码规规
+4.修改密码
+5.忘记密码
+6.认证授权与菜单显示
+7.一个账号只能登录一种客户端
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,158 +525,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,188 +544,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -897,251 +568,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,57 +751,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1661,12 +1043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1683,7 +1064,7 @@
     <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1094,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" ht="150.75" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="150.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
@@ -1733,7 +1114,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" ht="75.75" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="75.75" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1144,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" ht="156" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="156" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
@@ -1793,7 +1174,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="54" customHeight="1">
       <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1200,7 @@
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
     </row>
-    <row r="6" ht="57.95" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="57.95" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
@@ -1849,7 +1230,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="66" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="66" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
@@ -1873,7 +1254,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
     </row>
-    <row r="8" s="10" customFormat="1" ht="28.5" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="28.5" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>27</v>
       </c>
@@ -1897,12 +1278,12 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" s="10" customFormat="1" ht="89" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="102" customHeight="1">
       <c r="A9" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>21</v>
@@ -1921,29 +1302,21 @@
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" s="10" customFormat="1" ht="77" customHeight="1" spans="1:12">
-      <c r="A10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="36" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="38">
-        <v>43095</v>
-      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="41"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" s="10" customFormat="1" ht="24" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="28"/>
@@ -1957,7 +1330,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="22.5" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="28"/>
@@ -1971,7 +1344,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="43"/>
@@ -1985,29 +1358,37 @@
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="36" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="42"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="38">
+        <v>43095</v>
+      </c>
       <c r="H14" s="41"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="97.5" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="97.5" customHeight="1">
       <c r="A15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="42"/>
@@ -2016,19 +1397,19 @@
         <v>43097</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="45" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="42"/>
@@ -2041,12 +1422,12 @@
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="63.75" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="63.75" customHeight="1">
       <c r="A17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="42"/>
@@ -2059,15 +1440,15 @@
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="122.25" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="122.25" customHeight="1">
       <c r="A18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="C18" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>13</v>
@@ -2078,24 +1459,24 @@
         <v>43087</v>
       </c>
       <c r="H18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>44</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>45</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>13</v>
@@ -2111,7 +1492,7 @@
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="43"/>
@@ -2125,7 +1506,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="43"/>
@@ -2139,7 +1520,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="43"/>
@@ -2153,7 +1534,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
     </row>
-    <row r="23" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="43"/>
@@ -2167,7 +1548,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="43"/>
@@ -2181,7 +1562,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="43"/>
@@ -2195,7 +1576,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="43"/>
@@ -2209,7 +1590,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="43"/>
@@ -2223,7 +1604,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="43"/>
@@ -2237,7 +1618,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="43"/>
@@ -2251,7 +1632,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="55"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="43"/>
@@ -2265,7 +1646,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="43"/>
@@ -2279,7 +1660,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="43"/>
@@ -2293,7 +1674,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="55"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="43"/>
@@ -2307,7 +1688,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="55"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="43"/>
@@ -2321,7 +1702,7 @@
       <c r="K34" s="55"/>
       <c r="L34" s="55"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="43"/>
@@ -2896,22 +2277,21 @@
       <c r="L75" s="53"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="67.625" customWidth="1"/>
@@ -2920,10 +2300,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>7</v>
@@ -2931,10 +2311,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -3059,24 +2439,23 @@
       <c r="C26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="错误或警告介面，请点击： 返回上一步操作，删除掉" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.213/Manage/javascript: history.go(-1);"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="49.25" customWidth="1"/>
@@ -3084,34 +2463,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3207,22 +2586,21 @@
       <c r="B27" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -3231,10 +2609,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -3242,22 +2620,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="51.95" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="51.95" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3426,56 +2804,55 @@
       <c r="C36" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>